--- a/Hardware/FR4_PCB_Mass_vs_Thickness_Estimates.xlsx
+++ b/Hardware/FR4_PCB_Mass_vs_Thickness_Estimates.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanshipley/Documents/Research/2019_ZOE_M8Q_GPS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanshipley/Documents/GitHub/Solar_LoRa_GPS/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6723F196-010F-4F47-833B-E69A99A4A273}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0A8BEB-3FB7-1E4D-A238-BE942893475E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14460" xr2:uid="{303D1030-1C2B-BD44-B662-AE7049AD71C6}"/>
+    <workbookView xWindow="4660" yWindow="1780" windowWidth="25440" windowHeight="14460" xr2:uid="{303D1030-1C2B-BD44-B662-AE7049AD71C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,6 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -405,7 +408,7 @@
   <dimension ref="A2:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -452,33 +455,33 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="B5">
-        <v>50.5</v>
+        <v>36</v>
       </c>
       <c r="D5">
         <f>(A5*B5*$G$3)/1000</f>
-        <v>4.2016</v>
+        <v>1.3248000000000002</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="G5">
         <f>(($A5*$B5*$G$3)/1000) * $E5</f>
-        <v>8.4032</v>
+        <v>2.6496000000000004</v>
       </c>
       <c r="H5">
         <f>(($A5*$B5*$H$3)/1000) * $E5</f>
-        <v>4.2016</v>
+        <v>1.3248000000000002</v>
       </c>
       <c r="I5">
         <f>(($A5*$B5*$I$3)/1000) * $E5</f>
-        <v>2.1008</v>
+        <v>0.6624000000000001</v>
       </c>
       <c r="J5">
         <f>(($A5*$B5*$J$3)/1000) * $E5</f>
-        <v>1.0504</v>
+        <v>0.33120000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">

--- a/Hardware/FR4_PCB_Mass_vs_Thickness_Estimates.xlsx
+++ b/Hardware/FR4_PCB_Mass_vs_Thickness_Estimates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanshipley/Documents/GitHub/Solar_LoRa_GPS/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0A8BEB-3FB7-1E4D-A238-BE942893475E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C013DB37-AAB5-9048-B265-2789B59D4A6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4660" yWindow="1780" windowWidth="25440" windowHeight="14460" xr2:uid="{303D1030-1C2B-BD44-B662-AE7049AD71C6}"/>
+    <workbookView xWindow="12560" yWindow="4180" windowWidth="25440" windowHeight="14460" xr2:uid="{303D1030-1C2B-BD44-B662-AE7049AD71C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -408,12 +408,12 @@
   <dimension ref="A2:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
@@ -422,7 +422,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -442,18 +442,21 @@
         <v>0.8</v>
       </c>
       <c r="I3">
+        <v>0.6</v>
+      </c>
+      <c r="J3">
         <v>0.4</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="E4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>23</v>
       </c>
@@ -477,41 +480,49 @@
       </c>
       <c r="I5">
         <f>(($A5*$B5*$I$3)/1000) * $E5</f>
-        <v>0.6624000000000001</v>
+        <v>0.99359999999999993</v>
       </c>
       <c r="J5">
         <f>(($A5*$B5*$J$3)/1000) * $E5</f>
+        <v>0.6624000000000001</v>
+      </c>
+      <c r="K5">
+        <f>(($A5*$B5*$K$3)/1000) * $E5</f>
         <v>0.33120000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="G7">
         <f>(($A7*$B7*$G$3)/1000) * $E7</f>
-        <v>0.80640000000000012</v>
+        <v>1.4336000000000002</v>
       </c>
       <c r="H7">
         <f>(($A7*$B7*$H$3)/1000) * $E7</f>
-        <v>0.40320000000000006</v>
+        <v>0.7168000000000001</v>
       </c>
       <c r="I7">
         <f>(($A7*$B7*$I$3)/1000) * $E7</f>
-        <v>0.20160000000000003</v>
+        <v>0.53760000000000008</v>
       </c>
       <c r="J7">
         <f>(($A7*$B7*$J$3)/1000) * $E7</f>
-        <v>0.10080000000000001</v>
+        <v>0.35840000000000005</v>
+      </c>
+      <c r="K7">
+        <f>(($A7*$B7*$K$3)/1000) * $E7</f>
+        <v>0.17920000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>10</v>
       </c>
@@ -531,10 +542,14 @@
       </c>
       <c r="I9">
         <f>(($A9*$B9*$I$3)/1000) * $E9</f>
-        <v>0.128</v>
+        <v>0.192</v>
       </c>
       <c r="J9">
         <f>(($A9*$B9*$J$3)/1000) * $E9</f>
+        <v>0.128</v>
+      </c>
+      <c r="K9">
+        <f>(($A9*$B9*$K$3)/1000) * $E9</f>
         <v>6.4000000000000001E-2</v>
       </c>
     </row>

--- a/Hardware/FR4_PCB_Mass_vs_Thickness_Estimates.xlsx
+++ b/Hardware/FR4_PCB_Mass_vs_Thickness_Estimates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanshipley/Documents/GitHub/Solar_LoRa_GPS/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C013DB37-AAB5-9048-B265-2789B59D4A6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F6C6C4-AA6C-4B4E-BCCA-3ABD2D35DD6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12560" yWindow="4180" windowWidth="25440" windowHeight="14460" xr2:uid="{303D1030-1C2B-BD44-B662-AE7049AD71C6}"/>
+    <workbookView xWindow="12560" yWindow="4160" windowWidth="25440" windowHeight="14460" xr2:uid="{303D1030-1C2B-BD44-B662-AE7049AD71C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Length</t>
   </si>
@@ -52,12 +52,15 @@
   <si>
     <t>g/cc</t>
   </si>
+  <si>
+    <t>v21_L70</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -405,15 +408,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F78ECE82-CDDC-5C44-B954-B635A2064F6A}">
-  <dimension ref="A2:K9"/>
+  <dimension ref="A2:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
@@ -422,7 +425,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -451,12 +454,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>23</v>
       </c>
@@ -491,7 +494,7 @@
         <v>0.33120000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>16</v>
       </c>
@@ -522,35 +525,122 @@
         <v>0.17920000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="G9">
         <f>(($A9*$B9*$G$3)/1000) * $E9</f>
-        <v>0.51200000000000001</v>
+        <v>0.1024</v>
       </c>
       <c r="H9">
         <f>(($A9*$B9*$H$3)/1000) * $E9</f>
-        <v>0.25600000000000001</v>
+        <v>5.1200000000000002E-2</v>
       </c>
       <c r="I9">
         <f>(($A9*$B9*$I$3)/1000) * $E9</f>
-        <v>0.192</v>
+        <v>3.8399999999999997E-2</v>
       </c>
       <c r="J9">
         <f>(($A9*$B9*$J$3)/1000) * $E9</f>
-        <v>0.128</v>
+        <v>2.5600000000000001E-2</v>
       </c>
       <c r="K9">
         <f>(($A9*$B9*$K$3)/1000) * $E9</f>
-        <v>6.4000000000000001E-2</v>
+        <v>1.2800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>32</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <f>(($A12*$B12*$G$3)/1000) * $E12</f>
+        <v>1.7408000000000001</v>
+      </c>
+      <c r="H12">
+        <f>(($A12*$B12*$H$3)/1000) * $E12</f>
+        <v>0.87040000000000006</v>
+      </c>
+      <c r="I12">
+        <f>(($A12*$B12*$I$3)/1000) * $E12</f>
+        <v>0.65279999999999994</v>
+      </c>
+      <c r="J12">
+        <f>(($A12*$B12*$J$3)/1000) * $E12</f>
+        <v>0.43520000000000003</v>
+      </c>
+      <c r="K12">
+        <f>(($A12*$B12*$K$3)/1000) * $E12</f>
+        <v>0.21760000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <f>(($A13*$B13*$G$3)/1000) * $E13</f>
+        <v>1.0752000000000002</v>
+      </c>
+      <c r="H13">
+        <f>(($A13*$B13*$H$3)/1000) * $E13</f>
+        <v>0.53760000000000008</v>
+      </c>
+      <c r="I13">
+        <f>(($A13*$B13*$I$3)/1000) * $E13</f>
+        <v>0.4032</v>
+      </c>
+      <c r="J13">
+        <f>(($A13*$B13*$J$3)/1000) * $E13</f>
+        <v>0.26880000000000004</v>
+      </c>
+      <c r="K13">
+        <f>(($A13*$B13*$K$3)/1000) * $E13</f>
+        <v>0.13440000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I15">
+        <v>0.42</v>
+      </c>
+      <c r="J15">
+        <f>J12-J13</f>
+        <v>0.16639999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I16">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I17">
+        <f>I15-I16</f>
+        <v>0.26</v>
       </c>
     </row>
   </sheetData>
